--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1977676.720530833</v>
+        <v>1973372.380720964</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>232.01072298284</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>15.62903715749003</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>142.1708200084915</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>201.0455876692497</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888209</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>48.96645664989342</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>5.291002003543187</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>116.9725659584293</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>154.1327966096476</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>127.6542494974959</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>64.58372944394571</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>260.5167087883576</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>73.66150548086027</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>252.2261456741142</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.756734485334</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>18.4733505966218</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.63857076482513</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>50.34571932180059</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>105.8965430419533</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>95.05806357631722</v>
       </c>
       <c r="H16" t="n">
-        <v>103.7802572945519</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>71.56327578339665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.5665975534146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>102.9630220374172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189153</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>18.50276072357107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W34" t="n">
-        <v>70.38407275859066</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>55.02344404120736</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>160.1816324288066</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>230.781875874152</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.41584059195296</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>120.8326485140796</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>35.0178230565848</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>686.1106626298169</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="C2" t="n">
-        <v>686.1106626298169</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D2" t="n">
-        <v>419.733006062639</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E2" t="n">
-        <v>419.733006062639</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F2" t="n">
-        <v>153.355349495461</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298169</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298169</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298169</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298169</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.1106626298169</v>
+        <v>801.1705019471533</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>762.612332712398</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>527.4602244806554</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>273.2228677524538</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>273.2228677524538</v>
+        <v>851.7791688249642</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749988</v>
+        <v>644.0188700600104</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>651.1328882755971</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="C4" t="n">
-        <v>482.1967053476902</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D4" t="n">
-        <v>482.1967053476902</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E4" t="n">
-        <v>482.1967053476902</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
         <v>36.32155393434483</v>
@@ -4491,10 +4491,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375335</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987218</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>651.1328882755971</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>651.1328882755971</v>
+        <v>1049.511073537799</v>
       </c>
       <c r="W4" t="n">
-        <v>651.1328882755971</v>
+        <v>783.1334169706212</v>
       </c>
       <c r="X4" t="n">
-        <v>651.1328882755971</v>
+        <v>555.1438660726038</v>
       </c>
       <c r="Y4" t="n">
-        <v>651.1328882755971</v>
+        <v>334.3512869290737</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>670.3237564101299</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="C5" t="n">
-        <v>670.3237564101299</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>670.3237564101299</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="E5" t="n">
-        <v>670.3237564101299</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>403.946099842952</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030602</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>936.7014129773079</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>936.7014129773079</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>936.7014129773079</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X5" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="Y5" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006024</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>691.0742594480918</v>
+        <v>342.0846976543626</v>
       </c>
       <c r="C6" t="n">
-        <v>516.6212301669648</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="D6" t="n">
-        <v>367.6868205057135</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302307</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267545</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166541</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T6" t="n">
-        <v>691.0742594480918</v>
+        <v>925.9118336449174</v>
       </c>
       <c r="U6" t="n">
-        <v>691.0742594480918</v>
+        <v>925.9118336449174</v>
       </c>
       <c r="V6" t="n">
-        <v>691.0742594480918</v>
+        <v>925.9118336449174</v>
       </c>
       <c r="W6" t="n">
-        <v>691.0742594480918</v>
+        <v>925.9118336449174</v>
       </c>
       <c r="X6" t="n">
-        <v>691.0742594480918</v>
+        <v>718.0603334393845</v>
       </c>
       <c r="Y6" t="n">
-        <v>691.0742594480918</v>
+        <v>510.3000346744306</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.2577368622517</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
         <v>36.32155393434483</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>654.0398669037992</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>654.0398669037992</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W7" t="n">
-        <v>654.0398669037992</v>
+        <v>537.0228411048272</v>
       </c>
       <c r="X7" t="n">
-        <v>426.0503160057818</v>
+        <v>537.0228411048272</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.2577368622517</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2361.424454670355</v>
+        <v>1621.957333209791</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.461937729943</v>
+        <v>1621.957333209791</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.196239123193</v>
+        <v>1263.69163460304</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>877.903382004796</v>
       </c>
       <c r="F8" t="n">
-        <v>837.422081735341</v>
+        <v>466.9174772151885</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270081</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467169</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607419</v>
       </c>
       <c r="L8" t="n">
         <v>795.1862829045917</v>
@@ -4816,40 +4816,40 @@
         <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661161</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762133</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762133</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762133</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762133</v>
+        <v>2229.499872999212</v>
       </c>
       <c r="W8" t="n">
-        <v>2361.424454670355</v>
+        <v>1876.731217729098</v>
       </c>
       <c r="X8" t="n">
-        <v>2361.424454670355</v>
+        <v>1621.957333209791</v>
       </c>
       <c r="Y8" t="n">
-        <v>2361.424454670355</v>
+        <v>1621.957333209791</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010777</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199507</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818586995</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.884826853244</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.350268880129</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763171</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>69.87120530445344</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="J9" t="n">
-        <v>143.0521112394723</v>
+        <v>143.0521112394727</v>
       </c>
       <c r="K9" t="n">
-        <v>589.469692233024</v>
+        <v>589.4696922330246</v>
       </c>
       <c r="L9" t="n">
-        <v>884.005675666505</v>
+        <v>884.0056756665058</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140806</v>
+        <v>1247.072144140807</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613375</v>
+        <v>1634.156546613376</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600764</v>
+        <v>1966.043356600765</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030388</v>
+        <v>2213.07871503039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442623</v>
+        <v>2536.272628442625</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251696</v>
+        <v>2424.826280251698</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685347</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751574</v>
+        <v>2002.726321751577</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519831</v>
+        <v>1767.574213519834</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.33685679163</v>
+        <v>1513.336856791632</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586097</v>
+        <v>1305.4853565861</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821143</v>
+        <v>1097.725057821146</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>812.8628281951976</v>
+        <v>715.9213805686145</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8628281951976</v>
+        <v>546.9851976407076</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7461887828619</v>
+        <v>396.8685582283719</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8330952004687</v>
+        <v>248.9554646459787</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9431477025584</v>
+        <v>102.0655171480684</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422491</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685566</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380132</v>
+        <v>76.63468308380146</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676567</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368918</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904033</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699195</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.128892699195</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.010519193837</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>895.3260309879503</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
-        <v>895.3260309879503</v>
+        <v>1346.351975440402</v>
       </c>
       <c r="X10" t="n">
-        <v>895.3260309879503</v>
+        <v>1118.362424542384</v>
       </c>
       <c r="Y10" t="n">
-        <v>895.3260309879503</v>
+        <v>897.5698453988542</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
         <v>175.9033664000583</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D16" t="n">
-        <v>594.8179559048583</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E16" t="n">
-        <v>594.8179559048583</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="F16" t="n">
-        <v>447.9280084069479</v>
+        <v>331.5467402424579</v>
       </c>
       <c r="G16" t="n">
-        <v>280.7319091218279</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1361.415228493873</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.425677595856</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2940.5785039035</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>2771.642320975594</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2621.525681563258</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2473.612587980865</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812248</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3571.009098775287</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3343.01954787727</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3122.22696873374</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2804.65264778894</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2635.716464861033</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2485.599825448698</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4670.716426881531</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4487.861592536436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4268.260127559377</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3979.184900903575</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3724.500412697688</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3435.083242660728</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3207.09369176271</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2986.30111261918</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2622.596178821929</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3117.921785037688</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3715.300272664239</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664239</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903526</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770323</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491255</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367897</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>336.3048548543966</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072721</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>546.5917956728314</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>398.6787020904383</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
         <v>175.9033664000583</v>
@@ -7092,55 +7092,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
         <v>175.9033664000583</v>
@@ -7329,55 +7329,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.556199993915</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.566649095898</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>1167.774069952368</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,13 +7636,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7651,7 +7651,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7663,34 +7663,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.545841391669</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2124.944376414609</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>29.86197300581183</v>
+        <v>29.86197300581205</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-4.505326036930149e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>61.35027805667457</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>70.46607471595162</v>
       </c>
       <c r="H16" t="n">
-        <v>36.51445555167194</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>37.70876137138012</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>10.85445046951662</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>183.5599762991737</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823013</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9182872993602</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>182.9484181982414</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W34" t="n">
-        <v>216.1389255780003</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>90.39760398172388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>55.74112246243902</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.4161395899843</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>146.0084629450598</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580781</v>
+        <v>390680.0076580789</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606944</v>
+        <v>507909.2320606934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911425</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101743</v>
+        <v>95270.23779101772</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716747</v>
+        <v>135650.8557716745</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26441,25 +26441,25 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756789</v>
+        <v>92902.86757567896</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416055.1119328495</v>
+        <v>-416055.1119328498</v>
       </c>
       <c r="C6" t="n">
-        <v>264032.8686583432</v>
+        <v>264032.8686583433</v>
       </c>
       <c r="D6" t="n">
-        <v>-44504.49210043346</v>
+        <v>-44504.49210043384</v>
       </c>
       <c r="E6" t="n">
-        <v>-52756.39849334126</v>
+        <v>-53103.77774769736</v>
       </c>
       <c r="F6" t="n">
-        <v>455152.8335673531</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="G6" t="n">
-        <v>455152.8335673531</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="H6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="I6" t="n">
-        <v>455152.8335673529</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="J6" t="n">
-        <v>386153.6791482389</v>
+        <v>385806.299893882</v>
       </c>
       <c r="K6" t="n">
-        <v>455152.8335673533</v>
+        <v>454805.4543129962</v>
       </c>
       <c r="L6" t="n">
-        <v>359882.5957763357</v>
+        <v>359535.2165219784</v>
       </c>
       <c r="M6" t="n">
-        <v>322434.8578718837</v>
+        <v>322087.4786175268</v>
       </c>
       <c r="N6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="O6" t="n">
-        <v>455152.8335673531</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="P6" t="n">
-        <v>455152.8335673534</v>
+        <v>454805.4543129961</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627821</v>
+        <v>933.7024595627827</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085695</v>
+        <v>640.1406900856957</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933039</v>
+        <v>319.6474457933044</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788919</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139538</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>133.2621687881675</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>397.20513748822</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>83.68366749506308</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>4.727397534227777</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>237.2921738527841</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>246.8466413202848</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695015</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402054</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>95.31714964479396</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590693</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>3.512283845753331</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>67.18673808738087</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>221.6749010587318</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>26.00628954823338</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27912,13 +27912,13 @@
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>275.5794632365527</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>117.5049550043548</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.776449164533375</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.77644916453059</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.19340941711216</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.9615342899056</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28061,25 +28061,25 @@
         <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-4.950171672842526e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763186</v>
+        <v>477.4691627763189</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354929</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359934</v>
+        <v>659.0954050359938</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525071</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307888</v>
+        <v>632.4356192307891</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983016</v>
+        <v>539.769169098302</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140464</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026269</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571277</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617162</v>
+        <v>508.8678404617165</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152209</v>
+        <v>522.3360580152213</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451908</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463701</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133929</v>
+        <v>8.095024154133935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415875</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307408</v>
+        <v>75.70643221307412</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942745</v>
+        <v>7.194100917942749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650326</v>
+        <v>0.09183958618650331</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>381.6404378718154</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089026</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250131</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313384</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655056</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087207</v>
+        <v>428.7491718087211</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559162</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809102</v>
+        <v>402.3374078091024</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430321</v>
+        <v>308.5361733430324</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797634</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234272</v>
+        <v>20.20013907234286</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>92.76854144708751</v>
+        <v>92.76854144708787</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884361</v>
+        <v>450.9268494884363</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772535</v>
+        <v>297.5110943772538</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396979</v>
+        <v>366.7338065396982</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318877</v>
+        <v>390.994345931888</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074638</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>249.5306650804286</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961975</v>
+        <v>326.4584983961977</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783564</v>
+        <v>24.53548676783571</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873305</v>
+        <v>25.68023017873313</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>243.7989988974564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1973372.380720964</v>
+        <v>1975132.911023749</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>232.01072298284</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>118.1014820586771</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>176.6274579493505</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>201.0455876692497</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>68.36004337105339</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>5.291002003543187</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5689651179051</v>
+        <v>118.101482058677</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>65.39524526193478</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>127.6542494974959</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>260.5167087883576</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>3.073567695085839</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>162.9613188843662</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>252.2261456741142</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>18.4733505966218</v>
+        <v>20.24979976115242</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256411</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932180059</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.7796819683693</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.799772605716168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>19.51567534720864</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>132.6164309267676</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>95.05806357631722</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>129.5380597272477</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>84.8780074336923</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>34.45703212904686</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.1816324288066</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>120.8326485140796</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>801.1705019471533</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079209</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079209</v>
+        <v>419.733006062639</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>153.355349495461</v>
       </c>
       <c r="F2" t="n">
         <v>34.06092317356495</v>
@@ -4339,13 +4339,13 @@
         <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471533</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y2" t="n">
-        <v>801.1705019471533</v>
+        <v>686.1106626298169</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.8035330399423</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
         <v>475.8035330399423</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.1080625266021</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.1080625266021</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.1080625266021</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.1080625266021</v>
       </c>
       <c r="X3" t="n">
-        <v>851.7791688249642</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="Y3" t="n">
-        <v>644.0188700600104</v>
+        <v>650.2565623210693</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>334.3512869290737</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C4" t="n">
-        <v>334.3512869290737</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2346475167379</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E4" t="n">
         <v>36.32155393434483</v>
@@ -4491,19 +4491,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="V4" t="n">
-        <v>1049.511073537799</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="W4" t="n">
-        <v>783.1334169706212</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X4" t="n">
-        <v>555.1438660726038</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y4" t="n">
-        <v>334.3512869290737</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388465</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044908</v>
+        <v>419.7330060626388</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356494</v>
@@ -4567,13 +4567,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030602</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298167</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.0846976543626</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C6" t="n">
-        <v>167.6316683732355</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302307</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267545</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293595</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560893</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>925.9118336449174</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U6" t="n">
-        <v>925.9118336449174</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="V6" t="n">
-        <v>925.9118336449174</v>
+        <v>801.3675279810718</v>
       </c>
       <c r="W6" t="n">
-        <v>925.9118336449174</v>
+        <v>547.1301712528702</v>
       </c>
       <c r="X6" t="n">
-        <v>718.0603334393845</v>
+        <v>339.2786710473374</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.3000346744306</v>
+        <v>131.5183722823835</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.3743762745875</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466805</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
         <v>36.32155393434483</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>788.477863438847</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001379</v>
+        <v>533.7933752329601</v>
       </c>
       <c r="W7" t="n">
-        <v>537.0228411048272</v>
+        <v>267.4157186657822</v>
       </c>
       <c r="X7" t="n">
-        <v>537.0228411048272</v>
+        <v>39.42616776776487</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.0228411048272</v>
+        <v>36.32155393434483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.957333209791</v>
+        <v>1024.258623375127</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.957333209791</v>
+        <v>1024.258623375127</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.69163460304</v>
+        <v>1024.258623375127</v>
       </c>
       <c r="E8" t="n">
-        <v>877.903382004796</v>
+        <v>638.4703707768831</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151885</v>
+        <v>227.4844659872755</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685566</v>
+        <v>215.8186480193468</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467169</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.1757437607416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045917</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
         <v>1655.591685209583</v>
@@ -4822,34 +4822,34 @@
         <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550196</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661162</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342783</v>
+        <v>2351.810676439054</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342783</v>
+        <v>2098.229497964624</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999212</v>
+        <v>1767.166610621053</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729098</v>
+        <v>1414.397955350939</v>
       </c>
       <c r="X8" t="n">
-        <v>1621.957333209791</v>
+        <v>1414.397955350939</v>
       </c>
       <c r="Y8" t="n">
-        <v>1621.957333209791</v>
+        <v>1024.258623375127</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010777</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199507</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586995</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>446.884826853244</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>300.350268880129</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763171</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530445344</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J9" t="n">
-        <v>143.0521112394727</v>
+        <v>113.4887579637186</v>
       </c>
       <c r="K9" t="n">
-        <v>589.4696922330246</v>
+        <v>482.1680661379772</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665058</v>
+        <v>776.7040495714582</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140807</v>
+        <v>1139.770518045759</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613376</v>
+        <v>1526.854920518328</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600765</v>
+        <v>1858.741730505717</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.07871503039</v>
+        <v>2421.055229888879</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442625</v>
+        <v>2536.272628442624</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251698</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685347</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751577</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519834</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791632</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.4853565861</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821146</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686145</v>
+        <v>517.1540250450086</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407076</v>
+        <v>348.2178421171017</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283719</v>
+        <v>198.101202704766</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459787</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480684</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685566</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380146</v>
+        <v>76.63468308380138</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368916</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.8653899904029</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
         <v>1581.490387616499</v>
@@ -4998,16 +4998,16 @@
         <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477362</v>
+        <v>1437.001789953757</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440402</v>
+        <v>1147.584619916796</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542384</v>
+        <v>919.5950690187784</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988542</v>
+        <v>698.8024898752483</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.402603663004</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>776.4664207350971</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>626.3497813227614</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>478.4366877403683</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>331.5467402424579</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,16 +5597,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,10 +5788,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6071,16 +6071,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6311,13 +6311,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6372,16 +6372,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406468</v>
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2412.158000621627</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,31 +6688,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
         <v>391.8463960427007</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>641.1291986799072</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1815.661451794542</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1560.976963588655</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.559793551694</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1043.570242653677</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>822.7776635101469</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8297,22 +8297,22 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>97.32166909127216</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>29.86197300581205</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>185.9417291143026</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>47.21554925516972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>70.46607471595162</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>37.70876137138012</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.64613085857654</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>182.9484181982414</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>104.8770068749576</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
@@ -26337,7 +26337,7 @@
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
@@ -26346,16 +26346,16 @@
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580789</v>
+        <v>390680.0076580785</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606934</v>
+        <v>507909.2320606938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101772</v>
+        <v>95270.23779101751</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716745</v>
+        <v>135650.8557716747</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
@@ -26435,19 +26435,19 @@
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567896</v>
+        <v>92902.86757567893</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416055.1119328498</v>
+        <v>-416055.1119328497</v>
       </c>
       <c r="C6" t="n">
-        <v>264032.8686583433</v>
+        <v>264032.8686583434</v>
       </c>
       <c r="D6" t="n">
-        <v>-44504.49210043384</v>
+        <v>-44504.49210043366</v>
       </c>
       <c r="E6" t="n">
-        <v>-53103.77774769736</v>
+        <v>-52791.13641877648</v>
       </c>
       <c r="F6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419172</v>
       </c>
       <c r="G6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419172</v>
       </c>
       <c r="H6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="I6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="J6" t="n">
-        <v>385806.299893882</v>
+        <v>386118.9412228031</v>
       </c>
       <c r="K6" t="n">
-        <v>454805.4543129962</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="L6" t="n">
-        <v>359535.2165219784</v>
+        <v>359847.8578508999</v>
       </c>
       <c r="M6" t="n">
-        <v>322087.4786175268</v>
+        <v>322400.1199464482</v>
       </c>
       <c r="N6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="O6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="P6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419172</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.7024595627823</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856957</v>
+        <v>640.1406900856953</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933044</v>
+        <v>319.6474457933041</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788914</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841897</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.4268100841891</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841897</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>133.2621687881675</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>288.7745636830343</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>18.21352963552633</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>4.727397534227777</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27590,16 +27590,16 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>154.8543025085125</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>246.8466413202848</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543567</v>
+        <v>263.8288880135848</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>101.1379383879326</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>67.18673808738087</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117139</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>26.00628954823338</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>215.5110856570089</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>138.0721553359342</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465045</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>117.5049550043548</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.77644916453059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164532778</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899056</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28064,13 +28064,13 @@
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.35796135545868</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885554</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
         <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972531</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.4691627763187</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354926</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359935</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525072</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.4356192307889</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983017</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542127</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864749</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140465</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436928</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.14683309026266</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502166</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571278</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.8678404617163</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152211</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519081</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947587</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366397</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133931</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
         <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415877</v>
       </c>
       <c r="J10" t="n">
         <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490122</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046253</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307409</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942746</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.09183958618650327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089026</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250131</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705668</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.3793117313381</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.5763021655054</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.7491718087208</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559163</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.3374078091022</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430322</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.0384768797632</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234278</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>92.76854144708787</v>
+        <v>62.90656844127574</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>372.4033415901602</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>297.5110943772536</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396982</v>
+        <v>366.733806539698</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>390.9943459318878</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074638</v>
+        <v>335.2392020074636</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804286</v>
+        <v>567.9934337203656</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961977</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783571</v>
+        <v>24.53548676783566</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.68023017873308</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
         <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641529</v>
       </c>
       <c r="N10" t="n">
         <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228576</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
